--- a/results/FrequencyTables/27278725_RT1.xlsx
+++ b/results/FrequencyTables/27278725_RT1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.884210526315789</v>
+        <v>0.922019198695378</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00287239168303621</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00196434528001186</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.990011489566732</v>
       </c>
       <c r="F2">
-        <v>0.0105263157894737</v>
+        <v>0.0227196916348542</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00389162744153293</v>
       </c>
       <c r="H2">
-        <v>0.957894736842105</v>
+        <v>0.948760238686483</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.994866758089026</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000426225862644083</v>
       </c>
       <c r="K2">
-        <v>0.978947368421053</v>
+        <v>0.981524035432341</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0244801897631667</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000333568066417108</v>
       </c>
       <c r="N2">
-        <v>0.936842105263158</v>
+        <v>0.948778770245728</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00168637189133094</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000148252473963159</v>
       </c>
       <c r="Q2">
-        <v>0.0421052631578947</v>
+        <v>0.132760090434009</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00164930877284015</v>
       </c>
       <c r="S2">
-        <v>0.989473684210526</v>
+        <v>0.999332863867166</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000148252473963159</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00402134835625069</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.000259441829435529</v>
       </c>
       <c r="W2">
-        <v>0.0315789473684211</v>
+        <v>0.0532782328305104</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000481820540380268</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000537415218116452</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000352099625662503</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.994885289648271</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000796857047551981</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000129720914717764</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00374337496756977</v>
       </c>
       <c r="H3">
-        <v>0.0210526315789474</v>
+        <v>0.00211259775397502</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00207553463548423</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.994014306363737</v>
       </c>
       <c r="K3">
-        <v>0.0105263157894737</v>
+        <v>0.00170490345057633</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.85315592453949e-05</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000500352099625662</v>
       </c>
       <c r="N3">
-        <v>0.0210526315789474</v>
+        <v>0.0047255476075757</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.913124050257589</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000593009895852637</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000389162744153293</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00552240465512768</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.70631184907898e-05</v>
       </c>
       <c r="T3">
-        <v>0.0105263157894737</v>
+        <v>0.00748674993513954</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.85315592453949e-05</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00151958785812238</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00187168748378489</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00709758719098625</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0526315789473684</v>
+        <v>0.055186983432786</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00114895667321448</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000333568066417108</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00478114228531189</v>
       </c>
       <c r="F4">
-        <v>0.989473684210526</v>
+        <v>0.973333086245877</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00559653089210926</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0408620881360958</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000870983284533561</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00498498943701123</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00674548756532375</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.970164189614914</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00157518253585857</v>
       </c>
       <c r="N4">
-        <v>0.0105263157894737</v>
+        <v>0.0317445609873615</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000277973388680924</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.936842105263158</v>
+        <v>0.846966383751529</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.992680034098069</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000481820540380268</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.55946777361847e-05</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.989529669026352</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00413253771172306</v>
       </c>
       <c r="W4">
-        <v>0.968421052631579</v>
+        <v>0.938771728253215</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.99227233979467</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0210526315789474</v>
+        <v>0.0147511211593343</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.995181794596197</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00248322893888292</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00283532856454542</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000315036507171713</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.985211815722175</v>
       </c>
       <c r="H5">
-        <v>0.0210526315789474</v>
+        <v>0.00153811941736778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00159371409510396</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000333568066417108</v>
       </c>
       <c r="K5">
-        <v>0.0105263157894737</v>
+        <v>0.00743115525740336</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.55946777361847e-05</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.997498239501872</v>
       </c>
       <c r="N5">
-        <v>0.0210526315789474</v>
+        <v>0.00776472332382047</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0767391868351803</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.999166079833957</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00322449130869871</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.85315592453949e-05</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.989473684210526</v>
+        <v>0.990104147362959</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00557799933286387</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.993773396093547</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000685667692079612</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5.55946777361847e-05</v>
       </c>
     </row>
   </sheetData>
